--- a/SMART approach to select relevant metrics.xlsx
+++ b/SMART approach to select relevant metrics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UoM\DISSERTATION\MY DISSERTATION WORKS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="METRICS FROM LITERATURE" sheetId="4" r:id="rId1"/>
@@ -1125,31 +1125,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1443,8 +1443,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195:D202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,16 +1502,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1540,10 +1541,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1571,10 +1572,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1602,10 +1603,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1633,10 +1634,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="14" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1664,10 +1665,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1693,10 +1694,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1722,10 +1723,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1751,9 +1752,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1786,9 +1787,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1818,11 +1819,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1849,11 +1850,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1881,9 +1882,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1914,12 +1915,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1949,10 +1950,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1980,9 +1981,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2010,11 +2011,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2044,10 +2045,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2075,12 +2076,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2108,10 +2109,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2139,9 +2140,9 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
@@ -2171,10 +2172,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12" t="s">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2"/>
@@ -2205,9 +2206,9 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
         <v>41</v>
@@ -2236,10 +2237,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2269,10 +2270,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="2" t="s">
         <v>44</v>
       </c>
@@ -2300,10 +2301,10 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="2" t="s">
         <v>45</v>
       </c>
@@ -2331,16 +2332,16 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="16">
         <v>2</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="4" t="s">
         <v>318</v>
       </c>
@@ -2368,10 +2369,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="3" t="s">
         <v>68</v>
       </c>
@@ -2399,10 +2400,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>67</v>
       </c>
@@ -2428,12 +2429,12 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="1" t="s">
         <v>59</v>
       </c>
@@ -2461,10 +2462,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="1" t="s">
         <v>60</v>
       </c>
@@ -2492,10 +2493,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="1" t="s">
         <v>61</v>
       </c>
@@ -2523,10 +2524,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="2" t="s">
         <v>3</v>
       </c>
@@ -2551,13 +2552,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="12" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="1" t="s">
         <v>56</v>
       </c>
@@ -2585,10 +2586,10 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="1" t="s">
         <v>57</v>
       </c>
@@ -2615,11 +2616,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="1" t="s">
         <v>58</v>
       </c>
@@ -2647,10 +2648,10 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="2" t="s">
         <v>55</v>
       </c>
@@ -2667,13 +2668,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="12" t="s">
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="11"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="1" t="s">
         <v>62</v>
       </c>
@@ -2701,10 +2702,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="1" t="s">
         <v>316</v>
       </c>
@@ -2732,12 +2733,12 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="12" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="1" t="s">
         <v>63</v>
       </c>
@@ -2765,10 +2766,10 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2794,10 +2795,10 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="1" t="s">
         <v>65</v>
       </c>
@@ -2825,10 +2826,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="1" t="s">
         <v>66</v>
       </c>
@@ -2856,12 +2857,12 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="12" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="11"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="1" t="s">
         <v>72</v>
       </c>
@@ -2889,10 +2890,10 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="1" t="s">
         <v>73</v>
       </c>
@@ -2910,10 +2911,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="1" t="s">
         <v>74</v>
       </c>
@@ -2939,12 +2940,12 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="12" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="11"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="1" t="s">
         <v>76</v>
       </c>
@@ -2970,10 +2971,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="11"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="1" t="s">
         <v>77</v>
       </c>
@@ -3001,10 +3002,10 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,12 +3033,12 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="11" t="s">
+      <c r="A51" s="16"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="11"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="1" t="s">
         <v>69</v>
       </c>
@@ -3053,10 +3054,10 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="1" t="s">
         <v>70</v>
       </c>
@@ -3082,10 +3083,10 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="1" t="s">
         <v>71</v>
       </c>
@@ -3111,16 +3112,16 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="A54" s="16">
         <v>3</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="16" t="s">
         <v>79</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -3148,10 +3149,10 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="4" t="s">
         <v>81</v>
       </c>
@@ -3177,10 +3178,10 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="4" t="s">
         <v>82</v>
       </c>
@@ -3206,9 +3207,9 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="11"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="2" t="s">
         <v>14</v>
       </c>
@@ -3237,9 +3238,9 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14" t="s">
+      <c r="A58" s="16"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -3270,10 +3271,10 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="19" t="s">
+      <c r="A59" s="16"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -3299,9 +3300,9 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="12" t="s">
+      <c r="A60" s="16"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -3332,9 +3333,9 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="5" t="s">
         <v>97</v>
       </c>
@@ -3365,9 +3366,9 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14" t="s">
+      <c r="A62" s="16"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D62" s="10" t="s">
@@ -3388,9 +3389,9 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="10" t="s">
         <v>99</v>
       </c>
@@ -3419,16 +3420,16 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
+      <c r="A64" s="16">
         <v>4</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="11"/>
+      <c r="D64" s="17"/>
       <c r="E64" s="4" t="s">
         <v>102</v>
       </c>
@@ -3456,10 +3457,10 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="4" t="s">
         <v>103</v>
       </c>
@@ -3487,10 +3488,10 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="4" t="s">
         <v>104</v>
       </c>
@@ -3516,12 +3517,12 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="12" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D67" s="11"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="4" t="s">
         <v>105</v>
       </c>
@@ -3549,10 +3550,10 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="4" t="s">
         <v>112</v>
       </c>
@@ -3578,8 +3579,8 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="4" t="s">
@@ -3607,8 +3608,8 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="4" t="s">
@@ -3638,8 +3639,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="4" t="s">
@@ -3667,8 +3668,8 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="4" t="s">
@@ -3695,17 +3696,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="12">
+    <row r="73" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
         <v>5</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="11"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="1" t="s">
         <v>114</v>
       </c>
@@ -3733,10 +3734,10 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="1" t="s">
         <v>291</v>
       </c>
@@ -3749,12 +3750,12 @@
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="11" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D75" s="11"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="1" t="s">
         <v>135</v>
       </c>
@@ -3780,10 +3781,10 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="1" t="s">
         <v>306</v>
       </c>
@@ -3809,10 +3810,10 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="1" t="s">
         <v>136</v>
       </c>
@@ -3840,12 +3841,12 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="11" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="D78" s="11"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="1" t="s">
         <v>1</v>
       </c>
@@ -3873,10 +3874,10 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
       <c r="E79" s="1" t="s">
         <v>314</v>
       </c>
@@ -3902,8 +3903,8 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="2" t="s">
         <v>134</v>
       </c>
@@ -3933,16 +3934,16 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="12">
+      <c r="A81" s="16">
         <v>6</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D81" s="11"/>
+      <c r="D81" s="17"/>
       <c r="E81" s="1" t="s">
         <v>126</v>
       </c>
@@ -3968,10 +3969,10 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="11"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
       <c r="E82" s="2" t="s">
         <v>127</v>
       </c>
@@ -3997,10 +3998,10 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="11"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
       <c r="E83" s="2" t="s">
         <v>128</v>
       </c>
@@ -4026,8 +4027,8 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="9" t="s">
         <v>294</v>
       </c>
@@ -4057,12 +4058,12 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="14" t="s">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="11"/>
+      <c r="D85" s="17"/>
       <c r="E85" s="1" t="s">
         <v>309</v>
       </c>
@@ -4088,10 +4089,10 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="11"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="1" t="s">
         <v>308</v>
       </c>
@@ -4117,10 +4118,10 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="11"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="1" t="s">
         <v>130</v>
       </c>
@@ -4146,10 +4147,10 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="11"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="17"/>
       <c r="E88" s="2" t="s">
         <v>131</v>
       </c>
@@ -4175,10 +4176,10 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="11"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="2" t="s">
         <v>132</v>
       </c>
@@ -4204,8 +4205,8 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="2" t="s">
         <v>51</v>
       </c>
@@ -4235,12 +4236,12 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="11" t="s">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D91" s="11"/>
+      <c r="D91" s="17"/>
       <c r="E91" s="1" t="s">
         <v>138</v>
       </c>
@@ -4266,10 +4267,10 @@
       </c>
     </row>
     <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
       <c r="E92" s="1" t="s">
         <v>139</v>
       </c>
@@ -4295,10 +4296,10 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="1" t="s">
         <v>140</v>
       </c>
@@ -4324,10 +4325,10 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="12">
+      <c r="A94" s="16">
         <v>7</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C94" s="2"/>
@@ -4359,8 +4360,8 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="2" t="s">
         <v>285</v>
       </c>
@@ -4392,9 +4393,9 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="11" t="s">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="17" t="s">
         <v>134</v>
       </c>
       <c r="D96" s="2"/>
@@ -4425,14 +4426,14 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="11"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="17"/>
       <c r="D97" s="2"/>
       <c r="E97" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F97" s="18" t="s">
+      <c r="F97" s="11" t="s">
         <v>305</v>
       </c>
       <c r="G97" s="2">
@@ -4456,8 +4457,8 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="2" t="s">
         <v>302</v>
       </c>
@@ -4465,7 +4466,7 @@
       <c r="E98" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="11" t="s">
         <v>304</v>
       </c>
       <c r="G98" s="2">
@@ -4489,7 +4490,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="15">
+      <c r="A99" s="13">
         <v>8</v>
       </c>
       <c r="B99" s="20" t="s">
@@ -4524,12 +4525,12 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="21"/>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D100" s="11"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="2" t="s">
         <v>181</v>
       </c>
@@ -4555,10 +4556,10 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
+      <c r="A101" s="14"/>
       <c r="B101" s="21"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="11"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="2" t="s">
         <v>182</v>
       </c>
@@ -4584,10 +4585,10 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="17"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="21"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="11"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="17"/>
       <c r="E102" s="2" t="s">
         <v>183</v>
       </c>
@@ -4613,10 +4614,10 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="21"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="11"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="2" t="s">
         <v>184</v>
       </c>
@@ -4642,10 +4643,10 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="21"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="11"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="17"/>
       <c r="E104" s="2" t="s">
         <v>185</v>
       </c>
@@ -4671,10 +4672,10 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
+      <c r="A105" s="14"/>
       <c r="B105" s="21"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="11"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="17"/>
       <c r="E105" s="2" t="s">
         <v>186</v>
       </c>
@@ -4700,10 +4701,10 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
+      <c r="A106" s="14"/>
       <c r="B106" s="21"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="11"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="17"/>
       <c r="E106" s="2" t="s">
         <v>187</v>
       </c>
@@ -4729,10 +4730,10 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
+      <c r="A107" s="14"/>
       <c r="B107" s="21"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="11"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="2" t="s">
         <v>188</v>
       </c>
@@ -4758,10 +4759,10 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="21"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="11"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="17"/>
       <c r="E108" s="1" t="s">
         <v>189</v>
       </c>
@@ -4787,10 +4788,10 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="21"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="11"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="2" t="s">
         <v>190</v>
       </c>
@@ -4816,12 +4817,12 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
+      <c r="A110" s="14"/>
       <c r="B110" s="21"/>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D110" s="11"/>
+      <c r="D110" s="17"/>
       <c r="E110" s="2" t="s">
         <v>192</v>
       </c>
@@ -4847,10 +4848,10 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
+      <c r="A111" s="14"/>
       <c r="B111" s="21"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="11"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="17"/>
       <c r="E111" s="1" t="s">
         <v>193</v>
       </c>
@@ -4876,10 +4877,10 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="17"/>
+      <c r="A112" s="14"/>
       <c r="B112" s="21"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="11"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="17"/>
       <c r="E112" s="1" t="s">
         <v>194</v>
       </c>
@@ -4905,10 +4906,10 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="17"/>
+      <c r="A113" s="14"/>
       <c r="B113" s="21"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="11"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="17"/>
       <c r="E113" s="2" t="s">
         <v>195</v>
       </c>
@@ -4934,10 +4935,10 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="17"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="21"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="11"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="17"/>
       <c r="E114" s="1" t="s">
         <v>196</v>
       </c>
@@ -4963,10 +4964,10 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="17"/>
+      <c r="A115" s="14"/>
       <c r="B115" s="21"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="11"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="17"/>
       <c r="E115" s="2" t="s">
         <v>197</v>
       </c>
@@ -4992,10 +4993,10 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="17"/>
+      <c r="A116" s="14"/>
       <c r="B116" s="21"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="11"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="17"/>
       <c r="E116" s="2" t="s">
         <v>198</v>
       </c>
@@ -5021,10 +5022,10 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="17"/>
+      <c r="A117" s="14"/>
       <c r="B117" s="21"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="11"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="17"/>
       <c r="E117" s="1" t="s">
         <v>199</v>
       </c>
@@ -5050,10 +5051,10 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="17"/>
+      <c r="A118" s="14"/>
       <c r="B118" s="21"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="11"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="17"/>
       <c r="E118" s="2" t="s">
         <v>200</v>
       </c>
@@ -5079,10 +5080,10 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="17"/>
+      <c r="A119" s="14"/>
       <c r="B119" s="21"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="11"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="17"/>
       <c r="E119" s="2" t="s">
         <v>201</v>
       </c>
@@ -5108,10 +5109,10 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="17"/>
+      <c r="A120" s="14"/>
       <c r="B120" s="21"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="11"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="17"/>
       <c r="E120" s="2" t="s">
         <v>202</v>
       </c>
@@ -5137,10 +5138,10 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="17"/>
+      <c r="A121" s="14"/>
       <c r="B121" s="21"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="11"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="17"/>
       <c r="E121" s="2" t="s">
         <v>203</v>
       </c>
@@ -5166,10 +5167,10 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="17"/>
+      <c r="A122" s="14"/>
       <c r="B122" s="21"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="11"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="17"/>
       <c r="E122" s="2" t="s">
         <v>204</v>
       </c>
@@ -5195,10 +5196,10 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="17"/>
+      <c r="A123" s="14"/>
       <c r="B123" s="21"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="11"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="17"/>
       <c r="E123" s="1" t="s">
         <v>205</v>
       </c>
@@ -5224,10 +5225,10 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="17"/>
+      <c r="A124" s="14"/>
       <c r="B124" s="21"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="11"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="17"/>
       <c r="E124" s="2" t="s">
         <v>206</v>
       </c>
@@ -5253,10 +5254,10 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="17"/>
+      <c r="A125" s="14"/>
       <c r="B125" s="21"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="11"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="17"/>
       <c r="E125" s="2" t="s">
         <v>207</v>
       </c>
@@ -5282,10 +5283,10 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="17"/>
+      <c r="A126" s="14"/>
       <c r="B126" s="21"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="11"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="17"/>
       <c r="E126" s="1" t="s">
         <v>208</v>
       </c>
@@ -5311,10 +5312,10 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="17"/>
+      <c r="A127" s="14"/>
       <c r="B127" s="21"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="11"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="17"/>
       <c r="E127" s="2" t="s">
         <v>209</v>
       </c>
@@ -5340,12 +5341,12 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="17"/>
+      <c r="A128" s="14"/>
       <c r="B128" s="21"/>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D128" s="16" t="s">
         <v>191</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -5373,10 +5374,10 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="17"/>
+      <c r="A129" s="14"/>
       <c r="B129" s="21"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
       <c r="E129" s="2" t="s">
         <v>211</v>
       </c>
@@ -5402,10 +5403,10 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="17"/>
+      <c r="A130" s="14"/>
       <c r="B130" s="21"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
       <c r="E130" s="2" t="s">
         <v>212</v>
       </c>
@@ -5431,10 +5432,10 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="17"/>
+      <c r="A131" s="14"/>
       <c r="B131" s="21"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
       <c r="E131" s="2" t="s">
         <v>213</v>
       </c>
@@ -5460,10 +5461,10 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="17"/>
+      <c r="A132" s="14"/>
       <c r="B132" s="21"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
       <c r="E132" s="2" t="s">
         <v>214</v>
       </c>
@@ -5489,10 +5490,10 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="17"/>
+      <c r="A133" s="14"/>
       <c r="B133" s="21"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
       <c r="E133" s="2" t="s">
         <v>215</v>
       </c>
@@ -5518,10 +5519,10 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="17"/>
+      <c r="A134" s="14"/>
       <c r="B134" s="21"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
       <c r="E134" s="2" t="s">
         <v>216</v>
       </c>
@@ -5547,10 +5548,10 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="17"/>
+      <c r="A135" s="14"/>
       <c r="B135" s="21"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
       <c r="E135" s="2" t="s">
         <v>217</v>
       </c>
@@ -5576,10 +5577,10 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="17"/>
+      <c r="A136" s="14"/>
       <c r="B136" s="21"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
       <c r="E136" s="2" t="s">
         <v>218</v>
       </c>
@@ -5605,10 +5606,10 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="17"/>
+      <c r="A137" s="14"/>
       <c r="B137" s="21"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
       <c r="E137" s="2" t="s">
         <v>219</v>
       </c>
@@ -5634,10 +5635,10 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="17"/>
+      <c r="A138" s="14"/>
       <c r="B138" s="21"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
       <c r="E138" s="1" t="s">
         <v>220</v>
       </c>
@@ -5663,10 +5664,10 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="17"/>
+      <c r="A139" s="14"/>
       <c r="B139" s="21"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
       <c r="E139" s="2" t="s">
         <v>221</v>
       </c>
@@ -5692,10 +5693,10 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="17"/>
+      <c r="A140" s="14"/>
       <c r="B140" s="21"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
       <c r="E140" s="2" t="s">
         <v>222</v>
       </c>
@@ -5721,10 +5722,10 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="17"/>
+      <c r="A141" s="14"/>
       <c r="B141" s="21"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
       <c r="E141" s="2" t="s">
         <v>223</v>
       </c>
@@ -5750,10 +5751,10 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="17"/>
+      <c r="A142" s="14"/>
       <c r="B142" s="21"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
       <c r="E142" s="2" t="s">
         <v>224</v>
       </c>
@@ -5779,10 +5780,10 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="17"/>
+      <c r="A143" s="14"/>
       <c r="B143" s="21"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
       <c r="E143" s="2" t="s">
         <v>225</v>
       </c>
@@ -5808,10 +5809,10 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="17"/>
+      <c r="A144" s="14"/>
       <c r="B144" s="21"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
       <c r="E144" s="2" t="s">
         <v>226</v>
       </c>
@@ -5837,10 +5838,10 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="17"/>
+      <c r="A145" s="14"/>
       <c r="B145" s="21"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
       <c r="E145" s="2" t="s">
         <v>227</v>
       </c>
@@ -5866,10 +5867,10 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="17"/>
+      <c r="A146" s="14"/>
       <c r="B146" s="21"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
       <c r="E146" s="2" t="s">
         <v>228</v>
       </c>
@@ -5895,10 +5896,10 @@
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="17"/>
+      <c r="A147" s="14"/>
       <c r="B147" s="21"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
       <c r="E147" s="2" t="s">
         <v>229</v>
       </c>
@@ -5924,10 +5925,10 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="17"/>
+      <c r="A148" s="14"/>
       <c r="B148" s="21"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
       <c r="E148" s="2" t="s">
         <v>230</v>
       </c>
@@ -5953,10 +5954,10 @@
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="17"/>
+      <c r="A149" s="14"/>
       <c r="B149" s="21"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
       <c r="E149" s="2" t="s">
         <v>231</v>
       </c>
@@ -5982,10 +5983,10 @@
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="17"/>
+      <c r="A150" s="14"/>
       <c r="B150" s="21"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
       <c r="E150" s="2" t="s">
         <v>232</v>
       </c>
@@ -6011,10 +6012,10 @@
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="17"/>
+      <c r="A151" s="14"/>
       <c r="B151" s="21"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="12" t="s">
+      <c r="C151" s="17"/>
+      <c r="D151" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E151" s="2" t="s">
@@ -6042,10 +6043,10 @@
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="17"/>
+      <c r="A152" s="14"/>
       <c r="B152" s="21"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="12"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="16"/>
       <c r="E152" s="2" t="s">
         <v>234</v>
       </c>
@@ -6071,10 +6072,10 @@
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="17"/>
+      <c r="A153" s="14"/>
       <c r="B153" s="21"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="12"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="16"/>
       <c r="E153" s="2" t="s">
         <v>235</v>
       </c>
@@ -6100,10 +6101,10 @@
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="16"/>
+      <c r="A154" s="15"/>
       <c r="B154" s="22"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="12"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="16"/>
       <c r="E154" s="2" t="s">
         <v>236</v>
       </c>
@@ -6129,14 +6130,14 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="11">
+      <c r="A155" s="17">
         <v>9</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C155" s="11"/>
-      <c r="D155" s="12" t="s">
+      <c r="C155" s="17"/>
+      <c r="D155" s="16" t="s">
         <v>243</v>
       </c>
       <c r="E155" s="2" t="s">
@@ -6166,10 +6167,10 @@
       </c>
     </row>
     <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="12"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="16"/>
       <c r="E156" s="2" t="s">
         <v>238</v>
       </c>
@@ -6197,10 +6198,10 @@
       </c>
     </row>
     <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="12"/>
+      <c r="A157" s="17"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="16"/>
       <c r="E157" s="2" t="s">
         <v>239</v>
       </c>
@@ -6228,10 +6229,10 @@
       </c>
     </row>
     <row r="158" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="12"/>
+      <c r="A158" s="17"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="16"/>
       <c r="E158" s="2" t="s">
         <v>240</v>
       </c>
@@ -6259,10 +6260,10 @@
       </c>
     </row>
     <row r="159" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="12"/>
+      <c r="A159" s="17"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="16"/>
       <c r="E159" s="1" t="s">
         <v>241</v>
       </c>
@@ -6290,14 +6291,14 @@
       </c>
     </row>
     <row r="160" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="13">
+      <c r="A160" s="18">
         <v>10</v>
       </c>
-      <c r="B160" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" s="11"/>
-      <c r="D160" s="12" t="s">
+      <c r="B160" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="17"/>
+      <c r="D160" s="16" t="s">
         <v>259</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -6325,10 +6326,10 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="13"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="12"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="16"/>
       <c r="E161" s="1" t="s">
         <v>251</v>
       </c>
@@ -6354,10 +6355,10 @@
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="13"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="12"/>
+      <c r="A162" s="18"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="16"/>
       <c r="E162" s="1" t="s">
         <v>252</v>
       </c>
@@ -6383,10 +6384,10 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="12"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="16"/>
       <c r="E163" s="1" t="s">
         <v>253</v>
       </c>
@@ -6412,10 +6413,10 @@
       </c>
     </row>
     <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="13"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="12"/>
+      <c r="A164" s="18"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="16"/>
       <c r="E164" s="1" t="s">
         <v>254</v>
       </c>
@@ -6441,10 +6442,10 @@
       </c>
     </row>
     <row r="165" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="12"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="16"/>
       <c r="E165" s="1" t="s">
         <v>255</v>
       </c>
@@ -6470,10 +6471,10 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="13"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="12"/>
+      <c r="A166" s="18"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="16"/>
       <c r="E166" s="1" t="s">
         <v>256</v>
       </c>
@@ -6499,10 +6500,10 @@
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="13"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="12"/>
+      <c r="A167" s="18"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="16"/>
       <c r="E167" s="1" t="s">
         <v>257</v>
       </c>
@@ -6528,10 +6529,10 @@
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="12" t="s">
+      <c r="A168" s="18"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="16" t="s">
         <v>270</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -6559,10 +6560,10 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="12"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="16"/>
       <c r="E169" s="1" t="s">
         <v>261</v>
       </c>
@@ -6588,10 +6589,10 @@
       </c>
     </row>
     <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="13"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="12"/>
+      <c r="A170" s="18"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="16"/>
       <c r="E170" s="1" t="s">
         <v>262</v>
       </c>
@@ -6617,10 +6618,10 @@
       </c>
     </row>
     <row r="171" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="12"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="16"/>
       <c r="E171" s="1" t="s">
         <v>263</v>
       </c>
@@ -6646,10 +6647,10 @@
       </c>
     </row>
     <row r="172" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="13"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="12"/>
+      <c r="A172" s="18"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="16"/>
       <c r="E172" s="1" t="s">
         <v>264</v>
       </c>
@@ -6675,10 +6676,10 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="12"/>
+      <c r="A173" s="18"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="16"/>
       <c r="E173" s="1" t="s">
         <v>265</v>
       </c>
@@ -6704,10 +6705,10 @@
       </c>
     </row>
     <row r="174" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="12"/>
+      <c r="A174" s="18"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="16"/>
       <c r="E174" s="1" t="s">
         <v>266</v>
       </c>
@@ -6733,10 +6734,10 @@
       </c>
     </row>
     <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="13"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="12"/>
+      <c r="A175" s="18"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="16"/>
       <c r="E175" s="1" t="s">
         <v>267</v>
       </c>
@@ -6762,10 +6763,10 @@
       </c>
     </row>
     <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="13"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="12"/>
+      <c r="A176" s="18"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="16"/>
       <c r="E176" s="1" t="s">
         <v>268</v>
       </c>
@@ -6791,10 +6792,10 @@
       </c>
     </row>
     <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="13"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="12"/>
+      <c r="A177" s="18"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="16"/>
       <c r="E177" s="1" t="s">
         <v>269</v>
       </c>
@@ -6820,12 +6821,12 @@
       </c>
     </row>
     <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="11" t="s">
+      <c r="A178" s="18"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="D178" s="12"/>
+      <c r="D178" s="16"/>
       <c r="E178" s="1" t="s">
         <v>271</v>
       </c>
@@ -6851,10 +6852,10 @@
       </c>
     </row>
     <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="12"/>
+      <c r="A179" s="18"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="16"/>
       <c r="E179" s="1" t="s">
         <v>272</v>
       </c>
@@ -6880,10 +6881,10 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="13"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="12"/>
+      <c r="A180" s="18"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="16"/>
       <c r="E180" s="1" t="s">
         <v>273</v>
       </c>
@@ -6909,10 +6910,10 @@
       </c>
     </row>
     <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
-      <c r="B181" s="14"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="12"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="16"/>
       <c r="E181" s="1" t="s">
         <v>274</v>
       </c>
@@ -6938,10 +6939,10 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="12"/>
+      <c r="A182" s="18"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="16"/>
       <c r="E182" s="2" t="s">
         <v>275</v>
       </c>
@@ -6967,12 +6968,12 @@
       </c>
     </row>
     <row r="183" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="12" t="s">
+      <c r="A183" s="18"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D183" s="15"/>
+      <c r="D183" s="13"/>
       <c r="E183" s="1" t="s">
         <v>276</v>
       </c>
@@ -6998,10 +6999,10 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
-      <c r="B184" s="14"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="17"/>
+      <c r="A184" s="18"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="14"/>
       <c r="E184" s="2" t="s">
         <v>277</v>
       </c>
@@ -7027,10 +7028,10 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
-      <c r="B185" s="14"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="17"/>
+      <c r="A185" s="18"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="14"/>
       <c r="E185" s="2" t="s">
         <v>278</v>
       </c>
@@ -7056,10 +7057,10 @@
       </c>
     </row>
     <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="13"/>
-      <c r="B186" s="14"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="17"/>
+      <c r="A186" s="18"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="14"/>
       <c r="E186" s="1" t="s">
         <v>279</v>
       </c>
@@ -7085,10 +7086,10 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
-      <c r="B187" s="14"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="17"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="14"/>
       <c r="E187" s="1" t="s">
         <v>280</v>
       </c>
@@ -7114,10 +7115,10 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="13"/>
-      <c r="B188" s="14"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="17"/>
+      <c r="A188" s="18"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="14"/>
       <c r="E188" s="2" t="s">
         <v>281</v>
       </c>
@@ -7143,10 +7144,10 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="17"/>
+      <c r="A189" s="18"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="14"/>
       <c r="E189" s="2" t="s">
         <v>282</v>
       </c>
@@ -7172,10 +7173,10 @@
       </c>
     </row>
     <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
-      <c r="B190" s="14"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="17"/>
+      <c r="A190" s="18"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="14"/>
       <c r="E190" s="1" t="s">
         <v>283</v>
       </c>
@@ -7201,10 +7202,10 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
-      <c r="B191" s="14"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="16"/>
+      <c r="A191" s="18"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="15"/>
       <c r="E191" s="2" t="s">
         <v>284</v>
       </c>
@@ -7230,14 +7231,14 @@
       </c>
     </row>
     <row r="192" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="11">
+      <c r="A192" s="17">
         <v>11</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B192" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11" t="s">
+      <c r="C192" s="17"/>
+      <c r="D192" s="17" t="s">
         <v>290</v>
       </c>
       <c r="E192" s="2" t="s">
@@ -7265,10 +7266,10 @@
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="11"/>
-      <c r="B193" s="13"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
+      <c r="A193" s="17"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
       <c r="E193" s="2" t="s">
         <v>288</v>
       </c>
@@ -7294,10 +7295,10 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="11"/>
-      <c r="B194" s="13"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
+      <c r="A194" s="17"/>
+      <c r="B194" s="18"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="17"/>
       <c r="E194" s="2" t="s">
         <v>289</v>
       </c>
@@ -7323,14 +7324,14 @@
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="12">
+      <c r="A195" s="16">
         <v>12</v>
       </c>
-      <c r="B195" s="12" t="s">
+      <c r="B195" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
       <c r="E195" s="2" t="s">
         <v>320</v>
       </c>
@@ -7343,10 +7344,10 @@
       <c r="L195" s="2"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="17"/>
       <c r="E196" s="2" t="s">
         <v>321</v>
       </c>
@@ -7359,10 +7360,10 @@
       <c r="L196" s="2"/>
     </row>
     <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="17"/>
       <c r="E197" s="1" t="s">
         <v>322</v>
       </c>
@@ -7375,10 +7376,10 @@
       <c r="L197" s="2"/>
     </row>
     <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="17"/>
       <c r="E198" s="1" t="s">
         <v>323</v>
       </c>
@@ -7391,10 +7392,10 @@
       <c r="L198" s="2"/>
     </row>
     <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
+      <c r="A199" s="16"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
       <c r="E199" s="1" t="s">
         <v>324</v>
       </c>
@@ -7407,10 +7408,10 @@
       <c r="L199" s="2"/>
     </row>
     <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
+      <c r="A200" s="16"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="17"/>
       <c r="E200" s="1" t="s">
         <v>2</v>
       </c>
@@ -7423,10 +7424,10 @@
       <c r="L200" s="2"/>
     </row>
     <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="12"/>
-      <c r="B201" s="12"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
+      <c r="A201" s="16"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
       <c r="E201" s="1" t="s">
         <v>325</v>
       </c>
@@ -7439,10 +7440,10 @@
       <c r="L201" s="2"/>
     </row>
     <row r="202" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
+      <c r="A202" s="16"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="17"/>
+      <c r="D202" s="17"/>
       <c r="E202" s="1" t="s">
         <v>326</v>
       </c>
@@ -7470,67 +7471,25 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A99:A154"/>
-    <mergeCell ref="B195:B202"/>
-    <mergeCell ref="C195:C202"/>
-    <mergeCell ref="D195:D202"/>
-    <mergeCell ref="A195:A202"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="D192:D194"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B81:B93"/>
-    <mergeCell ref="A81:A93"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="D168:D177"/>
-    <mergeCell ref="C160:C167"/>
-    <mergeCell ref="C168:C177"/>
-    <mergeCell ref="D178:D182"/>
-    <mergeCell ref="C183:C191"/>
-    <mergeCell ref="C178:C182"/>
-    <mergeCell ref="D183:D191"/>
-    <mergeCell ref="B155:B159"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="D155:D159"/>
-    <mergeCell ref="C155:C159"/>
-    <mergeCell ref="D160:D167"/>
-    <mergeCell ref="B160:B191"/>
-    <mergeCell ref="A160:A191"/>
-    <mergeCell ref="D128:D150"/>
-    <mergeCell ref="C128:C150"/>
-    <mergeCell ref="D151:D154"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="C100:C109"/>
-    <mergeCell ref="C110:C127"/>
-    <mergeCell ref="D100:D109"/>
-    <mergeCell ref="D110:D127"/>
-    <mergeCell ref="B99:B154"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="B64:B72"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D31:D34"/>
     <mergeCell ref="B28:B53"/>
     <mergeCell ref="A28:A53"/>
     <mergeCell ref="D54:D56"/>
@@ -7547,25 +7506,67 @@
     <mergeCell ref="D45:D47"/>
     <mergeCell ref="D41:D44"/>
     <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="B2:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="B99:B154"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="B64:B72"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D128:D150"/>
+    <mergeCell ref="C128:C150"/>
+    <mergeCell ref="D151:D154"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="C100:C109"/>
+    <mergeCell ref="C110:C127"/>
+    <mergeCell ref="D100:D109"/>
+    <mergeCell ref="D110:D127"/>
+    <mergeCell ref="B155:B159"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="D155:D159"/>
+    <mergeCell ref="C155:C159"/>
+    <mergeCell ref="D160:D167"/>
+    <mergeCell ref="B160:B191"/>
+    <mergeCell ref="A160:A191"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B81:B93"/>
+    <mergeCell ref="A81:A93"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A154"/>
+    <mergeCell ref="B195:B202"/>
+    <mergeCell ref="C195:C202"/>
+    <mergeCell ref="D195:D202"/>
+    <mergeCell ref="A195:A202"/>
+    <mergeCell ref="D192:D194"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="D168:D177"/>
+    <mergeCell ref="C160:C167"/>
+    <mergeCell ref="C168:C177"/>
+    <mergeCell ref="D178:D182"/>
+    <mergeCell ref="C183:C191"/>
+    <mergeCell ref="C178:C182"/>
+    <mergeCell ref="D183:D191"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:K194">
